--- a/uva.xlsx
+++ b/uva.xlsx
@@ -1,30 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kwon\Documents\FootballDatabase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="348">
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Pos</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Ht</t>
   </si>
   <si>
@@ -34,12 +39,12 @@
     <t>Class</t>
   </si>
   <si>
+    <t>Hometown</t>
+  </si>
+  <si>
     <t>State</t>
   </si>
   <si>
-    <t>Hometown</t>
-  </si>
-  <si>
     <t>--</t>
   </si>
   <si>
@@ -277,798 +282,799 @@
     <t>99</t>
   </si>
   <si>
+    <t>Sonny Abramsona</t>
+  </si>
+  <si>
+    <t>Christian Baumgardnera</t>
+  </si>
+  <si>
+    <t>Ethan Blundina</t>
+  </si>
+  <si>
+    <t>Christian Brooksa</t>
+  </si>
+  <si>
+    <t>Dre Bryanta</t>
+  </si>
+  <si>
+    <t>De'Vante Crossa</t>
+  </si>
+  <si>
+    <t>Osiris Crutchfielda</t>
+  </si>
+  <si>
+    <t>Chuck Davisa</t>
+  </si>
+  <si>
+    <t>Dillon Davisa</t>
+  </si>
+  <si>
+    <t>CJ Eppsa</t>
+  </si>
+  <si>
+    <t>Nick Granta</t>
+  </si>
+  <si>
+    <t>Nash Griffina</t>
+  </si>
+  <si>
+    <t>Michael Guercia</t>
+  </si>
+  <si>
+    <t>Trenton Jenkinsa</t>
+  </si>
+  <si>
+    <t>Patrick Kidda</t>
+  </si>
+  <si>
+    <t>Darious Latimorea</t>
+  </si>
+  <si>
+    <t>Dylan Lea</t>
+  </si>
+  <si>
+    <t>Brenton Nelsona</t>
+  </si>
+  <si>
+    <t>Dillon Reinkensmeyera</t>
+  </si>
+  <si>
+    <t>Dominic Shepparda</t>
+  </si>
+  <si>
+    <t>Alec Shiffletta</t>
+  </si>
+  <si>
+    <t>Tyler Shirleya</t>
+  </si>
+  <si>
+    <t>Ben Trenta</t>
+  </si>
+  <si>
+    <t>Rambert Tyreea</t>
+  </si>
+  <si>
+    <t>Donte Wilkinsa</t>
+  </si>
+  <si>
+    <t>Albert Reida</t>
+  </si>
+  <si>
+    <t>Quin Blandinga</t>
+  </si>
+  <si>
+    <t>Taquan Mizzella</t>
+  </si>
+  <si>
+    <t>Tim Harrisa</t>
+  </si>
+  <si>
+    <t>Jamil Kamaraa</t>
+  </si>
+  <si>
+    <t>Kurt Benkerta</t>
+  </si>
+  <si>
+    <t>Doni Dowlinga</t>
+  </si>
+  <si>
+    <t>Keeon Johnsona</t>
+  </si>
+  <si>
+    <t>Andrew Browna</t>
+  </si>
+  <si>
+    <t>Jordan Ellisa</t>
+  </si>
+  <si>
+    <t>David Eldridgea</t>
+  </si>
+  <si>
+    <t>Chris Peacea</t>
+  </si>
+  <si>
+    <t>Myles Robinsona</t>
+  </si>
+  <si>
+    <t>Matt Johnsa</t>
+  </si>
+  <si>
+    <t>Connor Brewera</t>
+  </si>
+  <si>
+    <t>Malcolm Cooka</t>
+  </si>
+  <si>
+    <t>Ben Hogga</t>
+  </si>
+  <si>
+    <t>Andre Levronea</t>
+  </si>
+  <si>
+    <t>Steven Wrighta</t>
+  </si>
+  <si>
+    <t>Juan Thornhilla</t>
+  </si>
+  <si>
+    <t>Daniel Hamma</t>
+  </si>
+  <si>
+    <t>Warren Crafta</t>
+  </si>
+  <si>
+    <t>Chris Sharpa</t>
+  </si>
+  <si>
+    <t>Anthony Callowaya</t>
+  </si>
+  <si>
+    <t>Cory Jonesa</t>
+  </si>
+  <si>
+    <t>Wilfred Waheea</t>
+  </si>
+  <si>
+    <t>Eric Gallona</t>
+  </si>
+  <si>
+    <t>Nicholas Contea</t>
+  </si>
+  <si>
+    <t>Kareem Gibsona</t>
+  </si>
+  <si>
+    <t>Kirk Garnera</t>
+  </si>
+  <si>
+    <t>Olamide Zaccheausa</t>
+  </si>
+  <si>
+    <t>Bryce Halla</t>
+  </si>
+  <si>
+    <t>Gladimir Paula</t>
+  </si>
+  <si>
+    <t>Jordan Macka</t>
+  </si>
+  <si>
+    <t>Kelvin Raineya</t>
+  </si>
+  <si>
+    <t>Chris Moorea</t>
+  </si>
+  <si>
+    <t>C.J. Stalkera</t>
+  </si>
+  <si>
+    <t>Connor Wingo-Reevesa</t>
+  </si>
+  <si>
+    <t>Jahvoni Simmonsa</t>
+  </si>
+  <si>
+    <t>Sean Fitzgeralda</t>
+  </si>
+  <si>
+    <t>Tanner Cowleya</t>
+  </si>
+  <si>
+    <t>Reed Kellama</t>
+  </si>
+  <si>
+    <t>Evan Buttsa</t>
+  </si>
+  <si>
+    <t>Lester Colemana</t>
+  </si>
+  <si>
+    <t>Jackson Matteoa</t>
+  </si>
+  <si>
+    <t>Zach Bradshawa</t>
+  </si>
+  <si>
+    <t>Robert Snydera</t>
+  </si>
+  <si>
+    <t>Micah Kisera</t>
+  </si>
+  <si>
+    <t>Matt Terrella</t>
+  </si>
+  <si>
+    <t>Andre Miles-Redmonda</t>
+  </si>
+  <si>
+    <t>James Trucillaa</t>
+  </si>
+  <si>
+    <t>Eli Hanbacka</t>
+  </si>
+  <si>
+    <t>Mark Halla</t>
+  </si>
+  <si>
+    <t>Sean Karla</t>
+  </si>
+  <si>
+    <t>Ben Knutsona</t>
+  </si>
+  <si>
+    <t>Jack Englisha</t>
+  </si>
+  <si>
+    <t>Steven Mossa</t>
+  </si>
+  <si>
+    <t>Jack McDonalda</t>
+  </si>
+  <si>
+    <t>Eric Smitha</t>
+  </si>
+  <si>
+    <t>Ryan Bischoffa</t>
+  </si>
+  <si>
+    <t>Michael Mooneya</t>
+  </si>
+  <si>
+    <t>Jake Fielera</t>
+  </si>
+  <si>
+    <t>R.J. Proctora</t>
+  </si>
+  <si>
+    <t>Hasise Duboisa</t>
+  </si>
+  <si>
+    <t>Joe Reeda</t>
+  </si>
+  <si>
+    <t>Braedon Uriea</t>
+  </si>
+  <si>
+    <t>Brendan Marshalla</t>
+  </si>
+  <si>
+    <t>Alex Furbanka</t>
+  </si>
+  <si>
+    <t>Cole Blackmana</t>
+  </si>
+  <si>
+    <t>Ross Gardnera</t>
+  </si>
+  <si>
+    <t>Richard Burneya</t>
+  </si>
+  <si>
+    <t>Ryan Santoroa</t>
+  </si>
+  <si>
+    <t>Sam Haywarda</t>
+  </si>
+  <si>
+    <t>Jack Powersa</t>
+  </si>
+  <si>
+    <t>Dylan Simsa</t>
+  </si>
+  <si>
+    <t>Juwan Moyea</t>
+  </si>
+  <si>
+    <t>Landan Worda</t>
+  </si>
+  <si>
+    <t>Joe Spaziania</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>QB</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>5-11</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>6-0</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>Chester</t>
+  </si>
+  <si>
+    <t>Longport</t>
+  </si>
+  <si>
+    <t>Charlottesville</t>
+  </si>
+  <si>
+    <t>Centreville</t>
+  </si>
+  <si>
+    <t>Allentown</t>
+  </si>
+  <si>
+    <t>Crozet</t>
+  </si>
+  <si>
+    <t>Fairfax</t>
+  </si>
+  <si>
+    <t>Bellaire</t>
+  </si>
+  <si>
+    <t>Chesapeake</t>
+  </si>
+  <si>
+    <t>Spotsylvania</t>
+  </si>
+  <si>
+    <t>Indianapolis</t>
+  </si>
+  <si>
+    <t>Franklin Lakes</t>
+  </si>
+  <si>
+    <t>Woodbridge</t>
+  </si>
+  <si>
+    <t>Lawrenceville</t>
+  </si>
+  <si>
+    <t>Ashburn</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Highlands Ranch</t>
+  </si>
+  <si>
+    <t>Afton</t>
+  </si>
+  <si>
+    <t>Midlothian</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Newport News</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Virginia Beach</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Cape Coral</t>
+  </si>
+  <si>
+    <t>Kannapolis</t>
+  </si>
+  <si>
+    <t>Suwanee</t>
+  </si>
+  <si>
+    <t>Bealeton</t>
+  </si>
+  <si>
+    <t>Olney</t>
+  </si>
+  <si>
+    <t>Chalfont</t>
+  </si>
+  <si>
+    <t>Scottsdale</t>
+  </si>
+  <si>
+    <t>Lynchburg</t>
+  </si>
+  <si>
+    <t>Laurel</t>
+  </si>
+  <si>
+    <t>Waycross</t>
+  </si>
+  <si>
+    <t>Altavista</t>
+  </si>
+  <si>
+    <t>Wytheville</t>
+  </si>
+  <si>
+    <t>Roanoke</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>Norfolk</t>
+  </si>
+  <si>
+    <t>Lakeland</t>
+  </si>
+  <si>
+    <t>Johnstown</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Harrisburg</t>
+  </si>
+  <si>
+    <t>Lithonia</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>West Chester</t>
+  </si>
+  <si>
+    <t>Falls Church</t>
+  </si>
+  <si>
+    <t>Manasquan</t>
+  </si>
+  <si>
+    <t>Newtown Square</t>
+  </si>
+  <si>
+    <t>Martinsville</t>
+  </si>
+  <si>
+    <t>Damascus</t>
+  </si>
+  <si>
+    <t>Erie</t>
+  </si>
+  <si>
+    <t>Ashland</t>
+  </si>
+  <si>
+    <t>Manorville</t>
+  </si>
+  <si>
+    <t>Granger</t>
+  </si>
+  <si>
+    <t>Fredericksburg</t>
+  </si>
+  <si>
+    <t>Quincy</t>
+  </si>
+  <si>
+    <t>Decatur</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Malvern</t>
+  </si>
+  <si>
+    <t>Parkersburg</t>
+  </si>
+  <si>
+    <t>Irvington</t>
+  </si>
+  <si>
+    <t>Charlotte Court House</t>
+  </si>
+  <si>
+    <t>Purcellville</t>
+  </si>
+  <si>
+    <t>Gaithersburg</t>
+  </si>
+  <si>
+    <t>Glen Allen</t>
+  </si>
+  <si>
+    <t>Mechanicsville</t>
+  </si>
+  <si>
+    <t>Oak Hill</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Lilburn</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t>Hingham</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
     <t>Naji Abdullaha</t>
-  </si>
-  <si>
-    <t>Sonny Abramsona</t>
-  </si>
-  <si>
-    <t>Christian Baumgardnera</t>
-  </si>
-  <si>
-    <t>Ethan Blundina</t>
-  </si>
-  <si>
-    <t>Christian Brooksa</t>
-  </si>
-  <si>
-    <t>Dre Bryanta</t>
-  </si>
-  <si>
-    <t>De'Vante Crossa</t>
-  </si>
-  <si>
-    <t>Osiris Crutchfielda</t>
-  </si>
-  <si>
-    <t>Chuck Davisa</t>
-  </si>
-  <si>
-    <t>Dillon Davisa</t>
-  </si>
-  <si>
-    <t>CJ Eppsa</t>
-  </si>
-  <si>
-    <t>Nick Granta</t>
-  </si>
-  <si>
-    <t>Nash Griffina</t>
-  </si>
-  <si>
-    <t>Michael Guercia</t>
-  </si>
-  <si>
-    <t>Trenton Jenkinsa</t>
-  </si>
-  <si>
-    <t>Patrick Kidda</t>
-  </si>
-  <si>
-    <t>Darious Latimorea</t>
-  </si>
-  <si>
-    <t>Dylan Lea</t>
-  </si>
-  <si>
-    <t>Brenton Nelsona</t>
-  </si>
-  <si>
-    <t>Dillon Reinkensmeyera</t>
-  </si>
-  <si>
-    <t>Dominic Shepparda</t>
-  </si>
-  <si>
-    <t>Alec Shiffletta</t>
-  </si>
-  <si>
-    <t>Tyler Shirleya</t>
-  </si>
-  <si>
-    <t>Ben Trenta</t>
-  </si>
-  <si>
-    <t>Rambert Tyreea</t>
-  </si>
-  <si>
-    <t>Donte Wilkinsa</t>
-  </si>
-  <si>
-    <t>Albert Reida</t>
-  </si>
-  <si>
-    <t>Quin Blandinga</t>
-  </si>
-  <si>
-    <t>Taquan Mizzella</t>
-  </si>
-  <si>
-    <t>Tim Harrisa</t>
-  </si>
-  <si>
-    <t>Kurt Benkerta</t>
-  </si>
-  <si>
-    <t>Doni Dowlinga</t>
-  </si>
-  <si>
-    <t>Keeon Johnsona</t>
-  </si>
-  <si>
-    <t>Andrew Browna</t>
-  </si>
-  <si>
-    <t>Jordan Ellisa</t>
-  </si>
-  <si>
-    <t>David Eldridgea</t>
-  </si>
-  <si>
-    <t>Chris Peacea</t>
-  </si>
-  <si>
-    <t>Myles Robinsona</t>
-  </si>
-  <si>
-    <t>Matt Johnsa</t>
-  </si>
-  <si>
-    <t>Connor Brewera</t>
-  </si>
-  <si>
-    <t>Malcolm Cooka</t>
-  </si>
-  <si>
-    <t>Jamil Kamaraa</t>
-  </si>
-  <si>
-    <t>Ben Hogga</t>
-  </si>
-  <si>
-    <t>Andre Levronea</t>
-  </si>
-  <si>
-    <t>Steven Wrighta</t>
-  </si>
-  <si>
-    <t>Juan Thornhilla</t>
-  </si>
-  <si>
-    <t>Daniel Hamma</t>
-  </si>
-  <si>
-    <t>Warren Crafta</t>
-  </si>
-  <si>
-    <t>Chris Sharpa</t>
-  </si>
-  <si>
-    <t>Anthony Callowaya</t>
-  </si>
-  <si>
-    <t>Cory Jonesa</t>
-  </si>
-  <si>
-    <t>Wilfred Waheea</t>
-  </si>
-  <si>
-    <t>Eric Gallona</t>
-  </si>
-  <si>
-    <t>Nicholas Contea</t>
-  </si>
-  <si>
-    <t>Kareem Gibsona</t>
-  </si>
-  <si>
-    <t>Kirk Garnera</t>
-  </si>
-  <si>
-    <t>Olamide Zaccheausa</t>
-  </si>
-  <si>
-    <t>Bryce Halla</t>
-  </si>
-  <si>
-    <t>Gladimir Paula</t>
-  </si>
-  <si>
-    <t>Jordan Macka</t>
-  </si>
-  <si>
-    <t>Kelvin Raineya</t>
-  </si>
-  <si>
-    <t>Chris Moorea</t>
-  </si>
-  <si>
-    <t>C.J. Stalkera</t>
-  </si>
-  <si>
-    <t>Connor Wingo-Reevesa</t>
-  </si>
-  <si>
-    <t>Jahvoni Simmonsa</t>
-  </si>
-  <si>
-    <t>Sean Fitzgeralda</t>
-  </si>
-  <si>
-    <t>Tanner Cowleya</t>
-  </si>
-  <si>
-    <t>Reed Kellama</t>
-  </si>
-  <si>
-    <t>Evan Buttsa</t>
-  </si>
-  <si>
-    <t>Lester Colemana</t>
-  </si>
-  <si>
-    <t>Jackson Matteoa</t>
-  </si>
-  <si>
-    <t>Zach Bradshawa</t>
-  </si>
-  <si>
-    <t>Robert Snydera</t>
-  </si>
-  <si>
-    <t>Micah Kisera</t>
-  </si>
-  <si>
-    <t>Matt Terrella</t>
-  </si>
-  <si>
-    <t>Andre Miles-Redmonda</t>
-  </si>
-  <si>
-    <t>James Trucillaa</t>
-  </si>
-  <si>
-    <t>Eli Hanbacka</t>
-  </si>
-  <si>
-    <t>Mark Halla</t>
-  </si>
-  <si>
-    <t>Sean Karla</t>
-  </si>
-  <si>
-    <t>Ben Knutsona</t>
-  </si>
-  <si>
-    <t>Jack Englisha</t>
-  </si>
-  <si>
-    <t>Steven Mossa</t>
-  </si>
-  <si>
-    <t>Jack McDonalda</t>
-  </si>
-  <si>
-    <t>Eric Smitha</t>
-  </si>
-  <si>
-    <t>Ryan Bischoffa</t>
-  </si>
-  <si>
-    <t>Michael Mooneya</t>
-  </si>
-  <si>
-    <t>Jake Fielera</t>
-  </si>
-  <si>
-    <t>R.J. Proctora</t>
-  </si>
-  <si>
-    <t>Hasise Duboisa</t>
-  </si>
-  <si>
-    <t>Joe Reeda</t>
-  </si>
-  <si>
-    <t>Braedon Uriea</t>
-  </si>
-  <si>
-    <t>Brendan Marshalla</t>
-  </si>
-  <si>
-    <t>Alex Furbanka</t>
-  </si>
-  <si>
-    <t>Cole Blackmana</t>
-  </si>
-  <si>
-    <t>Ross Gardnera</t>
-  </si>
-  <si>
-    <t>Richard Burneya</t>
-  </si>
-  <si>
-    <t>Ryan Santoroa</t>
-  </si>
-  <si>
-    <t>Sam Haywarda</t>
-  </si>
-  <si>
-    <t>Jack Powersa</t>
-  </si>
-  <si>
-    <t>Dylan Simsa</t>
-  </si>
-  <si>
-    <t>Juwan Moyea</t>
-  </si>
-  <si>
-    <t>Landan Worda</t>
-  </si>
-  <si>
-    <t>Joe Spaziania</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>QB</t>
-  </si>
-  <si>
-    <t>WR</t>
-  </si>
-  <si>
-    <t>DL</t>
-  </si>
-  <si>
-    <t>LB</t>
-  </si>
-  <si>
-    <t>CB</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>DB</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>OT</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>LS</t>
-  </si>
-  <si>
-    <t>DT</t>
-  </si>
-  <si>
-    <t>RB</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>TE</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>5-10</t>
-  </si>
-  <si>
-    <t>5-11</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>6-0</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>5-9</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>6-9</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>SO</t>
-  </si>
-  <si>
-    <t>JR</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>Jacksonville</t>
-  </si>
-  <si>
-    <t>Chester</t>
-  </si>
-  <si>
-    <t>Longport</t>
-  </si>
-  <si>
-    <t>Charlottesville</t>
-  </si>
-  <si>
-    <t>Centreville</t>
-  </si>
-  <si>
-    <t>Allentown</t>
-  </si>
-  <si>
-    <t>Crozet</t>
-  </si>
-  <si>
-    <t>Fairfax</t>
-  </si>
-  <si>
-    <t>Bellaire</t>
-  </si>
-  <si>
-    <t>Chesapeake</t>
-  </si>
-  <si>
-    <t>Spotsylvania</t>
-  </si>
-  <si>
-    <t>Indianapolis</t>
-  </si>
-  <si>
-    <t>Franklin Lakes</t>
-  </si>
-  <si>
-    <t>Woodbridge</t>
-  </si>
-  <si>
-    <t>Lawrenceville</t>
-  </si>
-  <si>
-    <t>Ashburn</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Highlands Ranch</t>
-  </si>
-  <si>
-    <t>Afton</t>
-  </si>
-  <si>
-    <t>Midlothian</t>
-  </si>
-  <si>
-    <t>Forest</t>
-  </si>
-  <si>
-    <t>Newport News</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Virginia Beach</t>
-  </si>
-  <si>
-    <t>Richmond</t>
-  </si>
-  <si>
-    <t>Cape Coral</t>
-  </si>
-  <si>
-    <t>Kannapolis</t>
-  </si>
-  <si>
-    <t>Suwanee</t>
-  </si>
-  <si>
-    <t>Bealeton</t>
-  </si>
-  <si>
-    <t>Olney</t>
-  </si>
-  <si>
-    <t>Chalfont</t>
-  </si>
-  <si>
-    <t>Scottsdale</t>
-  </si>
-  <si>
-    <t>Lynchburg</t>
-  </si>
-  <si>
-    <t>Laurel</t>
-  </si>
-  <si>
-    <t>Waycross</t>
-  </si>
-  <si>
-    <t>Altavista</t>
-  </si>
-  <si>
-    <t>Wytheville</t>
-  </si>
-  <si>
-    <t>Roanoke</t>
-  </si>
-  <si>
-    <t>Princeton</t>
-  </si>
-  <si>
-    <t>Norfolk</t>
-  </si>
-  <si>
-    <t>Lakeland</t>
-  </si>
-  <si>
-    <t>Johnstown</t>
-  </si>
-  <si>
-    <t>Baltimore</t>
-  </si>
-  <si>
-    <t>Philadelphia</t>
-  </si>
-  <si>
-    <t>Harrisburg</t>
-  </si>
-  <si>
-    <t>Lithonia</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>West Chester</t>
-  </si>
-  <si>
-    <t>Falls Church</t>
-  </si>
-  <si>
-    <t>Manasquan</t>
-  </si>
-  <si>
-    <t>Newtown Square</t>
-  </si>
-  <si>
-    <t>Martinsville</t>
-  </si>
-  <si>
-    <t>Damascus</t>
-  </si>
-  <si>
-    <t>Erie</t>
-  </si>
-  <si>
-    <t>Ashland</t>
-  </si>
-  <si>
-    <t>Manorville</t>
-  </si>
-  <si>
-    <t>Granger</t>
-  </si>
-  <si>
-    <t>Fredericksburg</t>
-  </si>
-  <si>
-    <t>Quincy</t>
-  </si>
-  <si>
-    <t>Decatur</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Malvern</t>
-  </si>
-  <si>
-    <t>Parkersburg</t>
-  </si>
-  <si>
-    <t>Irvington</t>
-  </si>
-  <si>
-    <t>Charlotte Court House</t>
-  </si>
-  <si>
-    <t>Purcellville</t>
-  </si>
-  <si>
-    <t>Gaithersburg</t>
-  </si>
-  <si>
-    <t>Glen Allen</t>
-  </si>
-  <si>
-    <t>Mechanicsville</t>
-  </si>
-  <si>
-    <t>Oak Hill</t>
-  </si>
-  <si>
-    <t>Dallas</t>
-  </si>
-  <si>
-    <t>Santa Cruz</t>
-  </si>
-  <si>
-    <t>Lilburn</t>
-  </si>
-  <si>
-    <t>Vienna</t>
-  </si>
-  <si>
-    <t>Hingham</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>WV</t>
-  </si>
-  <si>
-    <t>CA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1076,8 +1082,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1123,15 +1136,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1173,7 +1194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1205,9 +1226,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1239,6 +1261,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1414,14 +1437,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection sqref="A1:I105"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1455,28 +1480,28 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>347</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1484,28 +1509,28 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1513,28 +1538,28 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1542,28 +1567,28 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1571,28 +1596,28 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1600,28 +1625,28 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1629,28 +1654,28 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I8" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1658,28 +1683,28 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1687,28 +1712,28 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1716,28 +1741,28 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I11" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1745,28 +1770,28 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1774,28 +1799,28 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I13" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1803,28 +1828,28 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I14" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1832,28 +1857,28 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1861,28 +1886,28 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I16" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1890,28 +1915,28 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I17" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1919,28 +1944,28 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I18" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1948,28 +1973,28 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I19" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1977,28 +2002,28 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I20" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2006,28 +2031,28 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I21" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2035,28 +2060,28 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2064,28 +2089,28 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2093,28 +2118,28 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I24" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2122,28 +2147,28 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I25" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2151,28 +2176,28 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I26" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2180,28 +2205,28 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I27" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2209,28 +2234,28 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I28" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2238,28 +2263,28 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I29" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2267,28 +2292,28 @@
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I30" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2296,347 +2321,347 @@
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I31" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
         <v>192</v>
       </c>
       <c r="E32" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I32" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E33" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="G33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H33" t="s">
         <v>280</v>
       </c>
       <c r="I33" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E34" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H34" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I34" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E35" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G35" t="s">
         <v>254</v>
       </c>
       <c r="H35" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="I35" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E36" t="s">
         <v>215</v>
       </c>
       <c r="F36" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="G36" t="s">
         <v>253</v>
       </c>
       <c r="H36" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="I36" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E37" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F37" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="G37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I37" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F38" t="s">
         <v>242</v>
       </c>
       <c r="G38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H38" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="I38" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E39" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F39" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="G39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H39" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="I39" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E40" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F40" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G40" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H40" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I40" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H41" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I41" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E42" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G42" t="s">
         <v>254</v>
       </c>
       <c r="H42" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="I42" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2644,16 +2669,16 @@
         <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E43" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="F43" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G43" t="s">
         <v>253</v>
@@ -2662,10 +2687,10 @@
         <v>279</v>
       </c>
       <c r="I43" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2673,28 +2698,28 @@
         <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I44" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2702,28 +2727,28 @@
         <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I45" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2731,28 +2756,28 @@
         <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I46" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2760,28 +2785,28 @@
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I47" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2789,28 +2814,28 @@
         <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I48" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2818,28 +2843,28 @@
         <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I49" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2847,28 +2872,28 @@
         <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I50" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2876,28 +2901,28 @@
         <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I51" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2905,28 +2930,28 @@
         <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I52" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2934,28 +2959,28 @@
         <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I53" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2963,28 +2988,28 @@
         <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H54" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I54" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2992,28 +3017,28 @@
         <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I55" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3021,28 +3046,28 @@
         <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E56" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I56" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3050,28 +3075,28 @@
         <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I57" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3079,28 +3104,28 @@
         <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H58" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I58" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3108,28 +3133,28 @@
         <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H59" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I59" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3137,28 +3162,28 @@
         <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H60" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I60" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3166,28 +3191,28 @@
         <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G61" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H61" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I61" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3195,28 +3220,28 @@
         <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I62" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3224,28 +3249,28 @@
         <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F63" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H63" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I63" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3253,28 +3278,28 @@
         <v>45</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G64" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I64" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3282,28 +3307,28 @@
         <v>46</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H65" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I65" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3311,28 +3336,28 @@
         <v>47</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H66" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I66" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3340,28 +3365,28 @@
         <v>48</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H67" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I67" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3369,28 +3394,28 @@
         <v>49</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I68" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3398,28 +3423,28 @@
         <v>50</v>
       </c>
       <c r="C69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E69" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F69" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G69" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H69" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I69" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3427,28 +3452,28 @@
         <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H70" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I70" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3456,28 +3481,28 @@
         <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G71" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I71" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3485,28 +3510,28 @@
         <v>53</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D72" t="s">
+        <v>208</v>
+      </c>
+      <c r="E72" t="s">
         <v>209</v>
       </c>
-      <c r="E72" t="s">
-        <v>210</v>
-      </c>
       <c r="F72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H72" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I72" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3514,28 +3539,28 @@
         <v>54</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E73" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H73" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I73" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3543,28 +3568,28 @@
         <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I74" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3572,28 +3597,28 @@
         <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G75" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H75" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I75" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3601,28 +3626,28 @@
         <v>57</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I76" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3630,28 +3655,28 @@
         <v>58</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H77" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I77" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3659,28 +3684,28 @@
         <v>59</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E78" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G78" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H78" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I78" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3688,28 +3713,28 @@
         <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G79" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H79" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I79" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3717,28 +3742,28 @@
         <v>61</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D80" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G80" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H80" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I80" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3746,28 +3771,28 @@
         <v>62</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E81" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G81" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H81" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I81" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3775,28 +3800,28 @@
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G82" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H82" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I82" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3804,28 +3829,28 @@
         <v>64</v>
       </c>
       <c r="C83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D83" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F83" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G83" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H83" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I83" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3833,28 +3858,28 @@
         <v>65</v>
       </c>
       <c r="C84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D84" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F84" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G84" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H84" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I84" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3862,28 +3887,28 @@
         <v>66</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F85" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G85" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H85" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I85" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3891,28 +3916,28 @@
         <v>67</v>
       </c>
       <c r="C86" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E86" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F86" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G86" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H86" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I86" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3920,28 +3945,28 @@
         <v>68</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G87" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H87" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I87" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3949,28 +3974,28 @@
         <v>69</v>
       </c>
       <c r="C88" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F88" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H88" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I88" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3978,28 +4003,28 @@
         <v>70</v>
       </c>
       <c r="C89" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G89" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H89" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I89" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4007,28 +4032,28 @@
         <v>71</v>
       </c>
       <c r="C90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D90" t="s">
+        <v>208</v>
+      </c>
+      <c r="E90" t="s">
         <v>209</v>
       </c>
-      <c r="E90" t="s">
-        <v>210</v>
-      </c>
       <c r="F90" t="s">
+        <v>250</v>
+      </c>
+      <c r="G90" t="s">
         <v>251</v>
       </c>
-      <c r="G90" t="s">
-        <v>252</v>
-      </c>
       <c r="H90" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I90" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4036,28 +4061,28 @@
         <v>72</v>
       </c>
       <c r="C91" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E91" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F91" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G91" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H91" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I91" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4065,28 +4090,28 @@
         <v>73</v>
       </c>
       <c r="C92" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E92" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F92" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H92" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I92" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4094,28 +4119,28 @@
         <v>74</v>
       </c>
       <c r="C93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E93" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F93" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G93" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H93" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I93" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4123,28 +4148,28 @@
         <v>75</v>
       </c>
       <c r="C94" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D94" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F94" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G94" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H94" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I94" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4152,28 +4177,28 @@
         <v>76</v>
       </c>
       <c r="C95" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E95" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G95" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H95" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I95" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4181,28 +4206,28 @@
         <v>77</v>
       </c>
       <c r="C96" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D96" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G96" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H96" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I96" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4210,28 +4235,28 @@
         <v>78</v>
       </c>
       <c r="C97" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D97" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E97" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F97" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G97" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H97" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I97" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4239,28 +4264,28 @@
         <v>79</v>
       </c>
       <c r="C98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E98" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G98" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I98" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4268,28 +4293,28 @@
         <v>80</v>
       </c>
       <c r="C99" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D99" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E99" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G99" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I99" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4297,28 +4322,28 @@
         <v>81</v>
       </c>
       <c r="C100" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D100" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E100" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F100" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G100" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I100" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4326,28 +4351,28 @@
         <v>82</v>
       </c>
       <c r="C101" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D101" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E101" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F101" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G101" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H101" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I101" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4355,28 +4380,28 @@
         <v>83</v>
       </c>
       <c r="C102" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D102" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E102" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F102" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G102" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H102" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I102" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4384,28 +4409,28 @@
         <v>84</v>
       </c>
       <c r="C103" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D103" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E103" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F103" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G103" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H103" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I103" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4413,28 +4438,28 @@
         <v>85</v>
       </c>
       <c r="C104" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E104" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G104" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H104" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I104" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4442,28 +4467,30 @@
         <v>86</v>
       </c>
       <c r="C105" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D105" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F105" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H105" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I105" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/uva.xlsx
+++ b/uva.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kwon\Documents\FootballDatabase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hojun\Desktop\UVA\6th sem\CS 4750\FootballDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="350">
   <si>
     <t>No</t>
   </si>
@@ -1063,13 +1063,21 @@
   </si>
   <si>
     <t>Naji Abdullaha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UVA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1102,7 +1110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1125,18 +1133,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1152,7 +1174,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1227,6 +1249,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1262,6 +1301,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1438,15 +1494,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection sqref="A1:I105"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection sqref="A1:J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1471,8 +1527,11 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J1" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1500,8 +1559,11 @@
       <c r="I2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1529,8 +1591,11 @@
       <c r="I3" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1558,8 +1623,11 @@
       <c r="I4" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1587,8 +1655,11 @@
       <c r="I5" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1616,8 +1687,11 @@
       <c r="I6" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1645,8 +1719,11 @@
       <c r="I7" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1674,8 +1751,11 @@
       <c r="I8" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1703,8 +1783,11 @@
       <c r="I9" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1732,8 +1815,11 @@
       <c r="I10" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1761,8 +1847,11 @@
       <c r="I11" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1790,8 +1879,11 @@
       <c r="I12" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1819,8 +1911,11 @@
       <c r="I13" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1848,8 +1943,11 @@
       <c r="I14" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1877,8 +1975,11 @@
       <c r="I15" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1906,8 +2007,11 @@
       <c r="I16" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1935,8 +2039,11 @@
       <c r="I17" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1964,8 +2071,11 @@
       <c r="I18" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1993,8 +2103,11 @@
       <c r="I19" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2022,8 +2135,11 @@
       <c r="I20" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2051,8 +2167,11 @@
       <c r="I21" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2080,8 +2199,11 @@
       <c r="I22" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J22" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2109,8 +2231,11 @@
       <c r="I23" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2138,8 +2263,11 @@
       <c r="I24" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2167,8 +2295,11 @@
       <c r="I25" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J25" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2196,8 +2327,11 @@
       <c r="I26" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2225,8 +2359,11 @@
       <c r="I27" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2254,8 +2391,11 @@
       <c r="I28" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J28" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2283,8 +2423,11 @@
       <c r="I29" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2312,8 +2455,11 @@
       <c r="I30" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J30" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2341,8 +2487,11 @@
       <c r="I31" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J31" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2370,8 +2519,11 @@
       <c r="I32" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2399,8 +2551,11 @@
       <c r="I33" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2428,8 +2583,11 @@
       <c r="I34" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J34" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2457,8 +2615,11 @@
       <c r="I35" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J35" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2486,8 +2647,11 @@
       <c r="I36" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J36" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2515,8 +2679,11 @@
       <c r="I37" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J37" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2544,8 +2711,11 @@
       <c r="I38" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2573,8 +2743,11 @@
       <c r="I39" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J39" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2602,8 +2775,11 @@
       <c r="I40" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J40" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2631,8 +2807,11 @@
       <c r="I41" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2660,8 +2839,11 @@
       <c r="I42" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J42" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2689,8 +2871,11 @@
       <c r="I43" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J43" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2718,8 +2903,11 @@
       <c r="I44" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J44" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2747,8 +2935,11 @@
       <c r="I45" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J45" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2776,8 +2967,11 @@
       <c r="I46" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J46" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2805,8 +2999,11 @@
       <c r="I47" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J47" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2834,8 +3031,11 @@
       <c r="I48" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J48" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2863,8 +3063,11 @@
       <c r="I49" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J49" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2892,8 +3095,11 @@
       <c r="I50" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J50" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2921,8 +3127,11 @@
       <c r="I51" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J51" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2950,8 +3159,11 @@
       <c r="I52" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J52" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2979,8 +3191,11 @@
       <c r="I53" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J53" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3008,8 +3223,11 @@
       <c r="I54" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J54" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3037,8 +3255,11 @@
       <c r="I55" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J55" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3066,8 +3287,11 @@
       <c r="I56" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3095,8 +3319,11 @@
       <c r="I57" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J57" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3124,8 +3351,11 @@
       <c r="I58" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J58" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3153,8 +3383,11 @@
       <c r="I59" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J59" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3182,8 +3415,11 @@
       <c r="I60" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J60" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3211,8 +3447,11 @@
       <c r="I61" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3240,8 +3479,11 @@
       <c r="I62" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J62" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3269,8 +3511,11 @@
       <c r="I63" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J63" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3298,8 +3543,11 @@
       <c r="I64" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3327,8 +3575,11 @@
       <c r="I65" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J65" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3356,8 +3607,11 @@
       <c r="I66" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J66" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3385,8 +3639,11 @@
       <c r="I67" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J67" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3414,8 +3671,11 @@
       <c r="I68" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J68" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3443,8 +3703,11 @@
       <c r="I69" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J69" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3472,8 +3735,11 @@
       <c r="I70" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J70" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3501,8 +3767,11 @@
       <c r="I71" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J71" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3530,8 +3799,11 @@
       <c r="I72" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J72" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3559,8 +3831,11 @@
       <c r="I73" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J73" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3588,8 +3863,11 @@
       <c r="I74" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J74" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3617,8 +3895,11 @@
       <c r="I75" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J75" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3646,8 +3927,11 @@
       <c r="I76" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J76" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3675,8 +3959,11 @@
       <c r="I77" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J77" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3704,8 +3991,11 @@
       <c r="I78" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J78" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3733,8 +4023,11 @@
       <c r="I79" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J79" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3762,8 +4055,11 @@
       <c r="I80" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J80" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3791,8 +4087,11 @@
       <c r="I81" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J81" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3820,8 +4119,11 @@
       <c r="I82" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J82" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3849,8 +4151,11 @@
       <c r="I83" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J83" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3878,8 +4183,11 @@
       <c r="I84" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J84" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3907,8 +4215,11 @@
       <c r="I85" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J85" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3936,8 +4247,11 @@
       <c r="I86" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J86" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3965,8 +4279,11 @@
       <c r="I87" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J87" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3994,8 +4311,11 @@
       <c r="I88" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J88" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4023,8 +4343,11 @@
       <c r="I89" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J89" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4052,8 +4375,11 @@
       <c r="I90" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4081,8 +4407,11 @@
       <c r="I91" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J91" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4110,8 +4439,11 @@
       <c r="I92" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J92" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4139,8 +4471,11 @@
       <c r="I93" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J93" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4168,8 +4503,11 @@
       <c r="I94" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J94" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4197,8 +4535,11 @@
       <c r="I95" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J95" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4226,8 +4567,11 @@
       <c r="I96" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J96" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4255,8 +4599,11 @@
       <c r="I97" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J97" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4284,8 +4631,11 @@
       <c r="I98" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J98" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4313,8 +4663,11 @@
       <c r="I99" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J99" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4342,8 +4695,11 @@
       <c r="I100" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J100" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4371,8 +4727,11 @@
       <c r="I101" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J101" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4400,8 +4759,11 @@
       <c r="I102" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J102" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4429,8 +4791,11 @@
       <c r="I103" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J103" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4458,8 +4823,11 @@
       <c r="I104" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J104" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4486,6 +4854,9 @@
       </c>
       <c r="I105" t="s">
         <v>344</v>
+      </c>
+      <c r="J105" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/uva.xlsx
+++ b/uva.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hojun\Desktop\UVA\6th sem\CS 4750\FootballDatabase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kwon\Dropbox\CS_4750\FootballDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="351">
   <si>
     <t>No</t>
   </si>
@@ -1072,13 +1072,17 @@
   <si>
     <t>UVA</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1098,6 +1102,13 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1148,7 +1159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1156,9 +1167,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1174,7 +1188,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1249,23 +1263,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1301,23 +1298,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1494,15 +1474,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection sqref="A1:J105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1530,8 +1510,11 @@
       <c r="J1" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K1" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1562,8 +1545,11 @@
       <c r="J2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K2" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1594,8 +1580,11 @@
       <c r="J3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1626,8 +1615,11 @@
       <c r="J4" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4" s="3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1658,8 +1650,11 @@
       <c r="J5" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5" s="3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1690,8 +1685,11 @@
       <c r="J6" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="3">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1722,8 +1720,11 @@
       <c r="J7" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7" s="3">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1754,8 +1755,11 @@
       <c r="J8" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8" s="3">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1786,8 +1790,11 @@
       <c r="J9" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K9" s="3">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1818,8 +1825,11 @@
       <c r="J10" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K10" s="3">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1850,8 +1860,11 @@
       <c r="J11" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11" s="3">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1882,8 +1895,11 @@
       <c r="J12" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K12" s="3">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1914,8 +1930,11 @@
       <c r="J13" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K13" s="3">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1946,8 +1965,11 @@
       <c r="J14" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K14" s="3">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1978,8 +2000,11 @@
       <c r="J15" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K15" s="3">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2010,8 +2035,11 @@
       <c r="J16" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K16" s="3">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2042,8 +2070,11 @@
       <c r="J17" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K17" s="3">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2074,8 +2105,11 @@
       <c r="J18" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K18" s="3">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2106,8 +2140,11 @@
       <c r="J19" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K19" s="3">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2138,8 +2175,11 @@
       <c r="J20" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K20" s="3">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2170,8 +2210,11 @@
       <c r="J21" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K21" s="3">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2202,8 +2245,11 @@
       <c r="J22" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K22" s="3">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2234,8 +2280,11 @@
       <c r="J23" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K23" s="3">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2266,8 +2315,11 @@
       <c r="J24" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K24" s="3">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2298,8 +2350,11 @@
       <c r="J25" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K25" s="3">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2330,8 +2385,11 @@
       <c r="J26" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K26" s="3">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2362,8 +2420,11 @@
       <c r="J27" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K27" s="3">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2394,8 +2455,11 @@
       <c r="J28" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K28" s="3">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2426,8 +2490,11 @@
       <c r="J29" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K29" s="3">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2458,8 +2525,11 @@
       <c r="J30" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K30" s="3">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2490,8 +2560,11 @@
       <c r="J31" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K31" s="3">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2522,8 +2595,11 @@
       <c r="J32" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K32" s="3">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2554,8 +2630,11 @@
       <c r="J33" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K33" s="3">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2586,8 +2665,11 @@
       <c r="J34" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K34" s="3">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2618,8 +2700,11 @@
       <c r="J35" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K35" s="3">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2650,8 +2735,11 @@
       <c r="J36" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K36" s="3">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2682,8 +2770,11 @@
       <c r="J37" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K37" s="3">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2714,8 +2805,11 @@
       <c r="J38" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K38" s="3">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2746,8 +2840,11 @@
       <c r="J39" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K39" s="3">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2778,8 +2875,11 @@
       <c r="J40" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K40" s="3">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2810,8 +2910,11 @@
       <c r="J41" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K41" s="3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2842,8 +2945,11 @@
       <c r="J42" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K42" s="3">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2874,8 +2980,11 @@
       <c r="J43" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K43" s="3">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2906,8 +3015,11 @@
       <c r="J44" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K44" s="3">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2938,8 +3050,11 @@
       <c r="J45" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K45" s="3">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2970,8 +3085,11 @@
       <c r="J46" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K46" s="3">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3002,8 +3120,11 @@
       <c r="J47" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K47" s="3">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3034,8 +3155,11 @@
       <c r="J48" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K48" s="3">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3066,8 +3190,11 @@
       <c r="J49" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K49" s="3">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3098,8 +3225,11 @@
       <c r="J50" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K50" s="3">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3130,8 +3260,11 @@
       <c r="J51" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K51" s="3">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3162,8 +3295,11 @@
       <c r="J52" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K52" s="3">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3194,8 +3330,11 @@
       <c r="J53" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K53" s="3">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3226,8 +3365,11 @@
       <c r="J54" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K54" s="3">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3258,8 +3400,11 @@
       <c r="J55" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K55" s="3">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3290,8 +3435,11 @@
       <c r="J56" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K56" s="3">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3322,8 +3470,11 @@
       <c r="J57" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K57" s="3">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3354,8 +3505,11 @@
       <c r="J58" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K58" s="3">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3386,8 +3540,11 @@
       <c r="J59" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K59" s="3">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3418,8 +3575,11 @@
       <c r="J60" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K60" s="3">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3450,8 +3610,11 @@
       <c r="J61" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K61" s="3">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3482,8 +3645,11 @@
       <c r="J62" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K62" s="3">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3514,8 +3680,11 @@
       <c r="J63" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K63" s="3">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3546,8 +3715,11 @@
       <c r="J64" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K64" s="3">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3578,8 +3750,11 @@
       <c r="J65" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K65" s="3">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3610,8 +3785,11 @@
       <c r="J66" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K66" s="3">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3642,8 +3820,11 @@
       <c r="J67" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K67" s="3">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3674,8 +3855,11 @@
       <c r="J68" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K68" s="3">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3706,8 +3890,11 @@
       <c r="J69" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K69" s="3">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3738,8 +3925,11 @@
       <c r="J70" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K70" s="3">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3770,8 +3960,11 @@
       <c r="J71" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K71" s="3">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3802,8 +3995,11 @@
       <c r="J72" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K72" s="3">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3834,8 +4030,11 @@
       <c r="J73" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K73" s="3">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3866,8 +4065,11 @@
       <c r="J74" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K74" s="3">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3898,8 +4100,11 @@
       <c r="J75" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K75" s="3">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3930,8 +4135,11 @@
       <c r="J76" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K76" s="3">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3962,8 +4170,11 @@
       <c r="J77" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K77" s="3">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3994,8 +4205,11 @@
       <c r="J78" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K78" s="3">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4026,8 +4240,11 @@
       <c r="J79" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K79" s="3">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4058,8 +4275,11 @@
       <c r="J80" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K80" s="3">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4090,8 +4310,11 @@
       <c r="J81" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K81" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4122,8 +4345,11 @@
       <c r="J82" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K82" s="3">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4154,8 +4380,11 @@
       <c r="J83" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K83" s="3">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4186,8 +4415,11 @@
       <c r="J84" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K84" s="3">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4218,8 +4450,11 @@
       <c r="J85" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K85" s="3">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4250,8 +4485,11 @@
       <c r="J86" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K86" s="3">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4282,8 +4520,11 @@
       <c r="J87" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K87" s="3">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4314,8 +4555,11 @@
       <c r="J88" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K88" s="3">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4346,8 +4590,11 @@
       <c r="J89" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K89" s="3">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4378,8 +4625,11 @@
       <c r="J90" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K90" s="3">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4410,8 +4660,11 @@
       <c r="J91" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K91" s="3">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4442,8 +4695,11 @@
       <c r="J92" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K92" s="3">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4474,8 +4730,11 @@
       <c r="J93" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K93" s="3">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4506,8 +4765,11 @@
       <c r="J94" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K94" s="3">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4538,8 +4800,11 @@
       <c r="J95" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K95" s="3">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4570,8 +4835,11 @@
       <c r="J96" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K96" s="3">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4602,8 +4870,11 @@
       <c r="J97" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K97" s="3">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4634,8 +4905,11 @@
       <c r="J98" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K98" s="3">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4666,8 +4940,11 @@
       <c r="J99" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K99" s="3">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4698,8 +4975,11 @@
       <c r="J100" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K100" s="3">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4730,8 +5010,11 @@
       <c r="J101" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K101" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4762,8 +5045,11 @@
       <c r="J102" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K102" s="3">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4794,8 +5080,11 @@
       <c r="J103" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K103" s="3">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4826,8 +5115,11 @@
       <c r="J104" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K104" s="3">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4857,6 +5149,9 @@
       </c>
       <c r="J105" t="s">
         <v>349</v>
+      </c>
+      <c r="K105" s="3">
+        <v>1104</v>
       </c>
     </row>
   </sheetData>
